--- a/puu-san-code-untouched/X68000/Doc/keymap.xlsx
+++ b/puu-san-code-untouched/X68000/Doc/keymap.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="230">
   <si>
     <t xml:space="preserve">ESC</t>
   </si>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">[</t>
   </si>
   <si>
-    <t xml:space="preserve">1d</t>
+    <t xml:space="preserve">Return</t>
   </si>
   <si>
     <t xml:space="preserve">DEL</t>
@@ -267,6 +267,9 @@
     <t xml:space="preserve">.</t>
   </si>
   <si>
+    <t xml:space="preserve">_</t>
+  </si>
+  <si>
     <t xml:space="preserve">↑</t>
   </si>
   <si>
@@ -469,6 +472,9 @@
     <t xml:space="preserve">1c</t>
   </si>
   <si>
+    <t xml:space="preserve">1d</t>
+  </si>
+  <si>
     <t xml:space="preserve">37</t>
   </si>
   <si>
@@ -643,7 +649,83 @@
     <t xml:space="preserve">ひらがな</t>
   </si>
   <si>
-    <t xml:space="preserve">Return</t>
+    <t xml:space="preserve">!
+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“
+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#
+3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$
+4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%
+5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;
+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'
+7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(
+8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">)
+9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=
+-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~
+^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`
+@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">}
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+
+;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*
+:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?
+/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|
+\</t>
   </si>
   <si>
     <t xml:space="preserve">カナ入力</t>
@@ -717,7 +799,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -756,6 +838,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
       <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
@@ -786,7 +875,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -823,11 +912,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -851,7 +952,7 @@
   <dimension ref="B1:CQ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="BD8" activeCellId="0" sqref="BD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1569,7 +1670,7 @@
       <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
       <c r="AY7" s="4" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4"/>
@@ -1591,7 +1692,7 @@
       <c r="BO7" s="2"/>
       <c r="BP7" s="2"/>
       <c r="BQ7" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BR7" s="4"/>
       <c r="BS7" s="4"/>
@@ -1622,7 +1723,7 @@
       <c r="CL7" s="4"/>
       <c r="CM7" s="4"/>
       <c r="CN7" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CO7" s="5"/>
       <c r="CP7" s="5"/>
@@ -1630,7 +1731,7 @@
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1638,20 +1739,20 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1669,7 +1770,7 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -1677,32 +1778,32 @@
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
       <c r="AV8" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
       <c r="AZ8" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BA8" s="4"/>
       <c r="BB8" s="4"/>
       <c r="BC8" s="4"/>
       <c r="BD8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BE8" s="3"/>
       <c r="BF8" s="3"/>
@@ -1713,19 +1814,19 @@
       <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
       <c r="BM8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BN8" s="4"/>
       <c r="BO8" s="4"/>
       <c r="BP8" s="4"/>
       <c r="BQ8" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BR8" s="4"/>
       <c r="BS8" s="4"/>
       <c r="BT8" s="4"/>
       <c r="BU8" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BV8" s="4"/>
       <c r="BW8" s="4"/>
@@ -1758,7 +1859,7 @@
     <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1767,25 +1868,25 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1793,25 +1894,25 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
@@ -1820,25 +1921,25 @@
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
       <c r="AT11" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
@@ -1847,19 +1948,19 @@
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
       <c r="BM11" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BN11" s="1"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BR11" s="1"/>
       <c r="BS11" s="1"/>
       <c r="BT11" s="1"/>
       <c r="BU11" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BV11" s="3"/>
       <c r="BW11" s="3"/>
@@ -1870,19 +1971,19 @@
       <c r="CB11" s="2"/>
       <c r="CC11" s="2"/>
       <c r="CD11" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="CE11" s="3"/>
       <c r="CF11" s="3"/>
       <c r="CG11" s="3"/>
       <c r="CH11" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
       <c r="CL11" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="CM11" s="3"/>
       <c r="CN11" s="3"/>
@@ -1988,91 +2089,91 @@
     </row>
     <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AU13" s="5"/>
       <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
       <c r="AX13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AY13" s="5"/>
       <c r="AZ13" s="5"/>
       <c r="BA13" s="5"/>
       <c r="BB13" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC13" s="5"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
       <c r="BF13" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
@@ -2081,19 +2182,19 @@
       <c r="BK13" s="2"/>
       <c r="BL13" s="2"/>
       <c r="BM13" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BN13" s="1"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
       <c r="BQ13" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BR13" s="1"/>
       <c r="BS13" s="1"/>
       <c r="BT13" s="1"/>
       <c r="BU13" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BV13" s="1"/>
       <c r="BW13" s="1"/>
@@ -2102,25 +2203,25 @@
       <c r="BZ13" s="2"/>
       <c r="CA13" s="2"/>
       <c r="CB13" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CC13" s="5"/>
       <c r="CD13" s="5"/>
       <c r="CE13" s="5"/>
       <c r="CF13" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CG13" s="5"/>
       <c r="CH13" s="5"/>
       <c r="CI13" s="5"/>
       <c r="CJ13" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CK13" s="5"/>
       <c r="CL13" s="5"/>
       <c r="CM13" s="5"/>
       <c r="CN13" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CO13" s="5"/>
       <c r="CP13" s="5"/>
@@ -2128,7 +2229,7 @@
     </row>
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2136,79 +2237,79 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
       <c r="AZ14" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="6" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="BE14" s="6"/>
       <c r="BF14" s="6"/>
@@ -2219,19 +2320,19 @@
       <c r="BK14" s="2"/>
       <c r="BL14" s="2"/>
       <c r="BM14" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BN14" s="1"/>
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
       <c r="BQ14" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BR14" s="1"/>
       <c r="BS14" s="1"/>
       <c r="BT14" s="1"/>
       <c r="BU14" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BV14" s="1"/>
       <c r="BW14" s="1"/>
@@ -2240,25 +2341,25 @@
       <c r="BZ14" s="2"/>
       <c r="CA14" s="2"/>
       <c r="CB14" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="CC14" s="1"/>
       <c r="CD14" s="1"/>
       <c r="CE14" s="1"/>
       <c r="CF14" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="CG14" s="5"/>
       <c r="CH14" s="5"/>
       <c r="CI14" s="5"/>
       <c r="CJ14" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="CK14" s="1"/>
       <c r="CL14" s="1"/>
       <c r="CM14" s="1"/>
       <c r="CN14" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="CO14" s="4"/>
       <c r="CP14" s="4"/>
@@ -2266,7 +2367,7 @@
     </row>
     <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2275,73 +2376,73 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
@@ -2370,19 +2471,19 @@
       <c r="BZ15" s="2"/>
       <c r="CA15" s="2"/>
       <c r="CB15" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="CC15" s="1"/>
       <c r="CD15" s="1"/>
       <c r="CE15" s="1"/>
       <c r="CF15" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="CG15" s="5"/>
       <c r="CH15" s="5"/>
       <c r="CI15" s="5"/>
       <c r="CJ15" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CK15" s="5"/>
       <c r="CL15" s="5"/>
@@ -2394,7 +2495,7 @@
     </row>
     <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2405,73 +2506,73 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
       <c r="AU16" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV16" s="5"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
       <c r="AY16" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
       <c r="BC16" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
@@ -2487,7 +2588,7 @@
       <c r="BO16" s="2"/>
       <c r="BP16" s="2"/>
       <c r="BQ16" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BR16" s="1"/>
       <c r="BS16" s="1"/>
@@ -2500,25 +2601,25 @@
       <c r="BZ16" s="2"/>
       <c r="CA16" s="2"/>
       <c r="CB16" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CC16" s="1"/>
       <c r="CD16" s="1"/>
       <c r="CE16" s="1"/>
       <c r="CF16" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CG16" s="5"/>
       <c r="CH16" s="5"/>
       <c r="CI16" s="5"/>
       <c r="CJ16" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="CK16" s="5"/>
       <c r="CL16" s="5"/>
       <c r="CM16" s="5"/>
       <c r="CN16" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CO16" s="5"/>
       <c r="CP16" s="5"/>
@@ -2526,7 +2627,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2534,20 +2635,20 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -2556,7 +2657,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -2567,7 +2668,7 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
@@ -2575,32 +2676,32 @@
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
       <c r="AV17" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AW17" s="3"/>
       <c r="AX17" s="3"/>
       <c r="AY17" s="3"/>
       <c r="AZ17" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
       <c r="BC17" s="4"/>
       <c r="BD17" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BE17" s="3"/>
       <c r="BF17" s="3"/>
@@ -2611,19 +2712,19 @@
       <c r="BK17" s="2"/>
       <c r="BL17" s="2"/>
       <c r="BM17" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BN17" s="1"/>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BR17" s="5"/>
       <c r="BS17" s="5"/>
       <c r="BT17" s="5"/>
       <c r="BU17" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BV17" s="5"/>
       <c r="BW17" s="5"/>
@@ -2632,7 +2733,7 @@
       <c r="BZ17" s="2"/>
       <c r="CA17" s="2"/>
       <c r="CB17" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="CC17" s="1"/>
       <c r="CD17" s="1"/>
@@ -2642,7 +2743,7 @@
       <c r="CH17" s="1"/>
       <c r="CI17" s="1"/>
       <c r="CJ17" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="CK17" s="5"/>
       <c r="CL17" s="5"/>
@@ -2906,7 +3007,7 @@
   <dimension ref="B1:CQ18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BI12" activeCellId="0" sqref="BI12"/>
+      <selection pane="topLeft" activeCell="BA6" activeCellId="0" sqref="BA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2997,7 +3098,7 @@
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
@@ -3006,13 +3107,13 @@
       <c r="BK2" s="2"/>
       <c r="BL2" s="2"/>
       <c r="BM2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
@@ -3425,7 +3526,7 @@
     </row>
     <row r="6" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3646,7 +3747,7 @@
       <c r="BO7" s="2"/>
       <c r="BP7" s="2"/>
       <c r="BQ7" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BR7" s="4"/>
       <c r="BS7" s="4"/>
@@ -3677,7 +3778,7 @@
       <c r="CL7" s="4"/>
       <c r="CM7" s="4"/>
       <c r="CN7" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CO7" s="5"/>
       <c r="CP7" s="5"/>
@@ -3685,7 +3786,7 @@
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3693,20 +3794,20 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -3724,7 +3825,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -3732,7 +3833,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
@@ -3757,7 +3858,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
@@ -3768,19 +3869,19 @@
       <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
       <c r="BM8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BN8" s="4"/>
       <c r="BO8" s="4"/>
       <c r="BP8" s="4"/>
       <c r="BQ8" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BR8" s="4"/>
       <c r="BS8" s="4"/>
       <c r="BT8" s="4"/>
       <c r="BU8" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BV8" s="4"/>
       <c r="BW8" s="4"/>
@@ -3820,7 +3921,7 @@
     <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3829,25 +3930,25 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -3855,25 +3956,25 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
@@ -3882,25 +3983,25 @@
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
       <c r="AT11" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
@@ -3909,19 +4010,19 @@
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
       <c r="BM11" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BN11" s="1"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BR11" s="1"/>
       <c r="BS11" s="1"/>
       <c r="BT11" s="1"/>
       <c r="BU11" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BV11" s="3"/>
       <c r="BW11" s="3"/>
@@ -3932,19 +4033,19 @@
       <c r="CB11" s="2"/>
       <c r="CC11" s="2"/>
       <c r="CD11" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="CE11" s="3"/>
       <c r="CF11" s="3"/>
       <c r="CG11" s="3"/>
       <c r="CH11" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
       <c r="CL11" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="CM11" s="3"/>
       <c r="CN11" s="3"/>
@@ -4050,91 +4151,91 @@
     </row>
     <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AU13" s="5"/>
       <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
       <c r="AX13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AY13" s="5"/>
       <c r="AZ13" s="5"/>
       <c r="BA13" s="5"/>
       <c r="BB13" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC13" s="5"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
       <c r="BF13" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
@@ -4143,19 +4244,19 @@
       <c r="BK13" s="2"/>
       <c r="BL13" s="2"/>
       <c r="BM13" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BN13" s="1"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
       <c r="BQ13" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BR13" s="1"/>
       <c r="BS13" s="1"/>
       <c r="BT13" s="1"/>
       <c r="BU13" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BV13" s="1"/>
       <c r="BW13" s="1"/>
@@ -4164,25 +4265,25 @@
       <c r="BZ13" s="2"/>
       <c r="CA13" s="2"/>
       <c r="CB13" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CC13" s="5"/>
       <c r="CD13" s="5"/>
       <c r="CE13" s="5"/>
       <c r="CF13" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CG13" s="5"/>
       <c r="CH13" s="5"/>
       <c r="CI13" s="5"/>
       <c r="CJ13" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CK13" s="5"/>
       <c r="CL13" s="5"/>
       <c r="CM13" s="5"/>
       <c r="CN13" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CO13" s="5"/>
       <c r="CP13" s="5"/>
@@ -4190,7 +4291,7 @@
     </row>
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4198,79 +4299,79 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
       <c r="AZ14" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="6" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="BE14" s="6"/>
       <c r="BF14" s="6"/>
@@ -4281,19 +4382,19 @@
       <c r="BK14" s="2"/>
       <c r="BL14" s="2"/>
       <c r="BM14" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BN14" s="1"/>
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
       <c r="BQ14" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BR14" s="1"/>
       <c r="BS14" s="1"/>
       <c r="BT14" s="1"/>
       <c r="BU14" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BV14" s="1"/>
       <c r="BW14" s="1"/>
@@ -4302,25 +4403,25 @@
       <c r="BZ14" s="2"/>
       <c r="CA14" s="2"/>
       <c r="CB14" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="CC14" s="1"/>
       <c r="CD14" s="1"/>
       <c r="CE14" s="1"/>
       <c r="CF14" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="CG14" s="5"/>
       <c r="CH14" s="5"/>
       <c r="CI14" s="5"/>
       <c r="CJ14" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="CK14" s="1"/>
       <c r="CL14" s="1"/>
       <c r="CM14" s="1"/>
       <c r="CN14" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="CO14" s="4"/>
       <c r="CP14" s="4"/>
@@ -4328,7 +4429,7 @@
     </row>
     <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4337,73 +4438,73 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
@@ -4432,19 +4533,19 @@
       <c r="BZ15" s="2"/>
       <c r="CA15" s="2"/>
       <c r="CB15" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="CC15" s="1"/>
       <c r="CD15" s="1"/>
       <c r="CE15" s="1"/>
       <c r="CF15" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="CG15" s="5"/>
       <c r="CH15" s="5"/>
       <c r="CI15" s="5"/>
       <c r="CJ15" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CK15" s="5"/>
       <c r="CL15" s="5"/>
@@ -4456,7 +4557,7 @@
     </row>
     <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4467,73 +4568,73 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
       <c r="AU16" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV16" s="5"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
       <c r="AY16" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
       <c r="BC16" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
@@ -4549,7 +4650,7 @@
       <c r="BO16" s="2"/>
       <c r="BP16" s="2"/>
       <c r="BQ16" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BR16" s="1"/>
       <c r="BS16" s="1"/>
@@ -4562,25 +4663,25 @@
       <c r="BZ16" s="2"/>
       <c r="CA16" s="2"/>
       <c r="CB16" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CC16" s="1"/>
       <c r="CD16" s="1"/>
       <c r="CE16" s="1"/>
       <c r="CF16" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CG16" s="5"/>
       <c r="CH16" s="5"/>
       <c r="CI16" s="5"/>
       <c r="CJ16" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="CK16" s="5"/>
       <c r="CL16" s="5"/>
       <c r="CM16" s="5"/>
       <c r="CN16" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CO16" s="5"/>
       <c r="CP16" s="5"/>
@@ -4588,7 +4689,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4596,20 +4697,20 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -4618,7 +4719,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -4629,7 +4730,7 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
@@ -4637,32 +4738,32 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AW17" s="4"/>
       <c r="AX17" s="4"/>
       <c r="AY17" s="4"/>
       <c r="AZ17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
       <c r="BD17" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BE17" s="5"/>
       <c r="BF17" s="5"/>
@@ -4673,19 +4774,19 @@
       <c r="BK17" s="2"/>
       <c r="BL17" s="2"/>
       <c r="BM17" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BN17" s="1"/>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BR17" s="5"/>
       <c r="BS17" s="5"/>
       <c r="BT17" s="5"/>
       <c r="BU17" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BV17" s="5"/>
       <c r="BW17" s="5"/>
@@ -4694,7 +4795,7 @@
       <c r="BZ17" s="2"/>
       <c r="CA17" s="2"/>
       <c r="CB17" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="CC17" s="1"/>
       <c r="CD17" s="1"/>
@@ -4704,7 +4805,7 @@
       <c r="CH17" s="1"/>
       <c r="CI17" s="1"/>
       <c r="CJ17" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="CK17" s="5"/>
       <c r="CL17" s="5"/>
@@ -4962,7 +5063,7 @@
   <dimension ref="B1:CQ17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BM8" activeCellId="0" sqref="BM8"/>
+      <selection pane="topLeft" activeCell="BK10" activeCellId="0" sqref="BK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4979,82 +5080,78 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="2"/>
-      <c r="AC2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
-      <c r="AK2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
-      <c r="AO2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="2"/>
+      <c r="AO2" s="1"/>
+      <c r="AR2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
       <c r="AV2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
       <c r="BL2" s="2"/>
       <c r="BM2" s="1" t="s">
         <v>13</v>
@@ -5182,92 +5279,90 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="F4" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="4" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4" t="s">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
       <c r="AT4" s="4" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
       <c r="AW4" s="4"/>
       <c r="AX4" s="4" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="4"/>
-      <c r="BF4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
       <c r="BL4" s="2"/>
       <c r="BM4" s="1" t="s">
         <v>33</v>
@@ -5385,25 +5480,27 @@
       <c r="AT5" s="4"/>
       <c r="AU5" s="4"/>
       <c r="AV5" s="4" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="AW5" s="4"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
-      <c r="BD5" s="5"/>
+      <c r="BD5" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="BE5" s="5"/>
       <c r="BF5" s="5"/>
       <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
       <c r="BL5" s="2"/>
       <c r="BM5" s="1" t="s">
         <v>53</v>
@@ -5516,32 +5613,30 @@
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="4" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="AT6" s="4"/>
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
       <c r="AW6" s="4" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="AX6" s="4"/>
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
-      <c r="BE6" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
       <c r="BL6" s="2"/>
       <c r="BM6" s="2"/>
       <c r="BN6" s="2"/>
@@ -5648,35 +5743,33 @@
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
       <c r="AU7" s="4" t="s">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
       <c r="AY7" s="4" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
-      <c r="BC7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="10"/>
+      <c r="BI7" s="11"/>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="11"/>
       <c r="BL7" s="2"/>
       <c r="BM7" s="2"/>
       <c r="BN7" s="2"/>
       <c r="BO7" s="2"/>
       <c r="BP7" s="2"/>
       <c r="BQ7" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BR7" s="4"/>
       <c r="BS7" s="4"/>
@@ -5707,7 +5800,7 @@
       <c r="CL7" s="4"/>
       <c r="CM7" s="4"/>
       <c r="CN7" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CO7" s="5"/>
       <c r="CP7" s="5"/>
@@ -5715,7 +5808,7 @@
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5723,13 +5816,13 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -5763,48 +5856,48 @@
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
       <c r="AV8" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AW8" s="5"/>
       <c r="AX8" s="5"/>
       <c r="AY8" s="5"/>
       <c r="AZ8" s="1" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="5" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="BE8" s="5"/>
       <c r="BF8" s="5"/>
       <c r="BG8" s="5"/>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="5"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
       <c r="BM8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BN8" s="4"/>
       <c r="BO8" s="4"/>
       <c r="BP8" s="4"/>
       <c r="BQ8" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BR8" s="4"/>
       <c r="BS8" s="4"/>
       <c r="BT8" s="4"/>
       <c r="BU8" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BV8" s="4"/>
       <c r="BW8" s="4"/>
@@ -5837,103 +5930,100 @@
     <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="H11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="T11" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="U11" s="1"/>
-      <c r="V11" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="2"/>
-      <c r="AC11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD11" s="1"/>
+      <c r="Z11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
-      <c r="AO11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="2"/>
+      <c r="AO11" s="1"/>
+      <c r="AR11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
       <c r="AV11" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
-      <c r="BH11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
       <c r="BL11" s="2"/>
       <c r="BM11" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BN11" s="1"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BR11" s="1"/>
       <c r="BS11" s="1"/>
       <c r="BT11" s="1"/>
       <c r="BU11" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BV11" s="3"/>
       <c r="BW11" s="3"/>
@@ -6040,112 +6130,110 @@
     </row>
     <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AU13" s="5"/>
       <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
       <c r="AX13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AY13" s="5"/>
       <c r="AZ13" s="5"/>
       <c r="BA13" s="5"/>
       <c r="BB13" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BC13" s="5"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
-      <c r="BF13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="10"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
       <c r="BL13" s="2"/>
       <c r="BM13" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BN13" s="1"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
       <c r="BQ13" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BR13" s="1"/>
       <c r="BS13" s="1"/>
       <c r="BT13" s="1"/>
       <c r="BU13" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BV13" s="1"/>
       <c r="BW13" s="1"/>
@@ -6154,25 +6242,25 @@
       <c r="BZ13" s="2"/>
       <c r="CA13" s="2"/>
       <c r="CB13" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CC13" s="5"/>
       <c r="CD13" s="5"/>
       <c r="CE13" s="5"/>
       <c r="CF13" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CG13" s="5"/>
       <c r="CH13" s="5"/>
       <c r="CI13" s="5"/>
       <c r="CJ13" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CK13" s="5"/>
       <c r="CL13" s="5"/>
       <c r="CM13" s="5"/>
       <c r="CN13" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CO13" s="5"/>
       <c r="CP13" s="5"/>
@@ -6180,7 +6268,7 @@
     </row>
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -6188,100 +6276,102 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
       <c r="AZ14" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
+      <c r="BD14" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="BE14" s="5"/>
       <c r="BF14" s="5"/>
       <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
-      <c r="BK14" s="5"/>
+      <c r="BH14" s="12"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
       <c r="BL14" s="2"/>
       <c r="BM14" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BN14" s="1"/>
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
       <c r="BQ14" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BR14" s="1"/>
       <c r="BS14" s="1"/>
       <c r="BT14" s="1"/>
       <c r="BU14" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BV14" s="1"/>
       <c r="BW14" s="1"/>
@@ -6290,25 +6380,25 @@
       <c r="BZ14" s="2"/>
       <c r="CA14" s="2"/>
       <c r="CB14" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="CC14" s="1"/>
       <c r="CD14" s="1"/>
       <c r="CE14" s="1"/>
       <c r="CF14" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="CG14" s="5"/>
       <c r="CH14" s="5"/>
       <c r="CI14" s="5"/>
       <c r="CJ14" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="CK14" s="1"/>
       <c r="CL14" s="1"/>
       <c r="CM14" s="1"/>
       <c r="CN14" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="CO14" s="4"/>
       <c r="CP14" s="4"/>
@@ -6316,7 +6406,7 @@
     </row>
     <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -6325,86 +6415,84 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
-      <c r="BE15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
-      <c r="BK15" s="5"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="12"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
       <c r="BM15" s="2"/>
       <c r="BN15" s="2"/>
@@ -6422,19 +6510,19 @@
       <c r="BZ15" s="2"/>
       <c r="CA15" s="2"/>
       <c r="CB15" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="CC15" s="1"/>
       <c r="CD15" s="1"/>
       <c r="CE15" s="1"/>
       <c r="CF15" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="CG15" s="5"/>
       <c r="CH15" s="5"/>
       <c r="CI15" s="5"/>
       <c r="CJ15" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CK15" s="5"/>
       <c r="CL15" s="5"/>
@@ -6446,7 +6534,7 @@
     </row>
     <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -6457,89 +6545,87 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
       <c r="AU16" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV16" s="5"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
       <c r="AY16" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
       <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="11"/>
+      <c r="BK16" s="11"/>
       <c r="BL16" s="2"/>
       <c r="BM16" s="2"/>
       <c r="BN16" s="2"/>
       <c r="BO16" s="2"/>
       <c r="BP16" s="2"/>
       <c r="BQ16" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BR16" s="1"/>
       <c r="BS16" s="1"/>
@@ -6552,25 +6638,25 @@
       <c r="BZ16" s="2"/>
       <c r="CA16" s="2"/>
       <c r="CB16" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CC16" s="1"/>
       <c r="CD16" s="1"/>
       <c r="CE16" s="1"/>
       <c r="CF16" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CG16" s="5"/>
       <c r="CH16" s="5"/>
       <c r="CI16" s="5"/>
       <c r="CJ16" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="CK16" s="5"/>
       <c r="CL16" s="5"/>
       <c r="CM16" s="5"/>
       <c r="CN16" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CO16" s="5"/>
       <c r="CP16" s="5"/>
@@ -6578,7 +6664,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -6586,20 +6672,20 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -6628,48 +6714,48 @@
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AW17" s="5"/>
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
       <c r="AZ17" s="1" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
       <c r="BD17" s="5" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="BE17" s="5"/>
       <c r="BF17" s="5"/>
       <c r="BG17" s="5"/>
-      <c r="BH17" s="5"/>
-      <c r="BI17" s="5"/>
-      <c r="BJ17" s="5"/>
-      <c r="BK17" s="5"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
       <c r="BL17" s="2"/>
       <c r="BM17" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BN17" s="1"/>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BR17" s="5"/>
       <c r="BS17" s="5"/>
       <c r="BT17" s="5"/>
       <c r="BU17" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BV17" s="5"/>
       <c r="BW17" s="5"/>
@@ -6678,7 +6764,7 @@
       <c r="BZ17" s="2"/>
       <c r="CA17" s="2"/>
       <c r="CB17" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="CC17" s="1"/>
       <c r="CD17" s="1"/>
@@ -6688,7 +6774,7 @@
       <c r="CH17" s="1"/>
       <c r="CI17" s="1"/>
       <c r="CJ17" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="CK17" s="5"/>
       <c r="CL17" s="5"/>
@@ -6699,20 +6785,20 @@
       <c r="CQ17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="216">
+  <mergeCells count="208">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:AY2"/>
     <mergeCell ref="AZ2:BC2"/>
     <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BH2:BK2"/>
     <mergeCell ref="BM2:BP2"/>
     <mergeCell ref="BQ2:BT2"/>
     <mergeCell ref="BU2:BX2"/>
@@ -6729,8 +6815,7 @@
     <mergeCell ref="AP4:AS4"/>
     <mergeCell ref="AT4:AW4"/>
     <mergeCell ref="AX4:BA4"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="BF4:BK4"/>
+    <mergeCell ref="BB4:BG4"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="BU4:BX4"/>
@@ -6752,7 +6837,6 @@
     <mergeCell ref="AV5:AY5"/>
     <mergeCell ref="AZ5:BC5"/>
     <mergeCell ref="BD5:BG5"/>
-    <mergeCell ref="BH5:BK5"/>
     <mergeCell ref="BM5:BP5"/>
     <mergeCell ref="BQ5:BT5"/>
     <mergeCell ref="BU5:BX5"/>
@@ -6772,8 +6856,7 @@
     <mergeCell ref="AO6:AR6"/>
     <mergeCell ref="AS6:AV6"/>
     <mergeCell ref="AW6:AZ6"/>
-    <mergeCell ref="BA6:BD6"/>
-    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BA6:BG6"/>
     <mergeCell ref="CB6:CE6"/>
     <mergeCell ref="CF6:CI6"/>
     <mergeCell ref="CJ6:CM6"/>
@@ -6788,8 +6871,7 @@
     <mergeCell ref="AM7:AP7"/>
     <mergeCell ref="AQ7:AT7"/>
     <mergeCell ref="AU7:AX7"/>
-    <mergeCell ref="AY7:BB7"/>
-    <mergeCell ref="BC7:BK7"/>
+    <mergeCell ref="AY7:BG7"/>
     <mergeCell ref="BQ7:BT7"/>
     <mergeCell ref="CB7:CE7"/>
     <mergeCell ref="CF7:CI7"/>
@@ -6802,25 +6884,25 @@
     <mergeCell ref="AR8:AU8"/>
     <mergeCell ref="AV8:AY8"/>
     <mergeCell ref="AZ8:BC8"/>
-    <mergeCell ref="BD8:BK8"/>
+    <mergeCell ref="BD8:BG8"/>
     <mergeCell ref="BM8:BP8"/>
     <mergeCell ref="BQ8:BT8"/>
     <mergeCell ref="BU8:BX8"/>
     <mergeCell ref="CB8:CI8"/>
     <mergeCell ref="CJ8:CM8"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AR11:AU11"/>
     <mergeCell ref="AV11:AY11"/>
     <mergeCell ref="AZ11:BC11"/>
     <mergeCell ref="BD11:BG11"/>
-    <mergeCell ref="BH11:BK11"/>
     <mergeCell ref="BM11:BP11"/>
     <mergeCell ref="BQ11:BT11"/>
     <mergeCell ref="BU11:BX11"/>
@@ -6837,8 +6919,7 @@
     <mergeCell ref="AP13:AS13"/>
     <mergeCell ref="AT13:AW13"/>
     <mergeCell ref="AX13:BA13"/>
-    <mergeCell ref="BB13:BE13"/>
-    <mergeCell ref="BF13:BK13"/>
+    <mergeCell ref="BB13:BG13"/>
     <mergeCell ref="BM13:BP13"/>
     <mergeCell ref="BQ13:BT13"/>
     <mergeCell ref="BU13:BX13"/>
@@ -6860,7 +6941,6 @@
     <mergeCell ref="AV14:AY14"/>
     <mergeCell ref="AZ14:BC14"/>
     <mergeCell ref="BD14:BG14"/>
-    <mergeCell ref="BH14:BK14"/>
     <mergeCell ref="BM14:BP14"/>
     <mergeCell ref="BQ14:BT14"/>
     <mergeCell ref="BU14:BX14"/>
@@ -6880,8 +6960,7 @@
     <mergeCell ref="AO15:AR15"/>
     <mergeCell ref="AS15:AV15"/>
     <mergeCell ref="AW15:AZ15"/>
-    <mergeCell ref="BA15:BD15"/>
-    <mergeCell ref="BE15:BK15"/>
+    <mergeCell ref="BA15:BG15"/>
     <mergeCell ref="CB15:CE15"/>
     <mergeCell ref="CF15:CI15"/>
     <mergeCell ref="CJ15:CM15"/>
@@ -6896,8 +6975,7 @@
     <mergeCell ref="AM16:AP16"/>
     <mergeCell ref="AQ16:AT16"/>
     <mergeCell ref="AU16:AX16"/>
-    <mergeCell ref="AY16:BB16"/>
-    <mergeCell ref="BC16:BK16"/>
+    <mergeCell ref="AY16:BG16"/>
     <mergeCell ref="BQ16:BT16"/>
     <mergeCell ref="CB16:CE16"/>
     <mergeCell ref="CF16:CI16"/>
@@ -6910,7 +6988,7 @@
     <mergeCell ref="AR17:AU17"/>
     <mergeCell ref="AV17:AY17"/>
     <mergeCell ref="AZ17:BC17"/>
-    <mergeCell ref="BD17:BK17"/>
+    <mergeCell ref="BD17:BG17"/>
     <mergeCell ref="BM17:BP17"/>
     <mergeCell ref="BQ17:BT17"/>
     <mergeCell ref="BU17:BX17"/>
@@ -6935,7 +7013,7 @@
   <dimension ref="B1:CQ17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CY14" activeCellId="0" sqref="CY14"/>
+      <selection pane="topLeft" activeCell="BA15" activeCellId="0" sqref="BA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6953,81 +7031,74 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="H2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="L2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="P2" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="V2" s="5"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH2" s="5"/>
+      <c r="Z2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
-      <c r="AK2" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
+      <c r="AR2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
       <c r="AZ2" s="5" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="BA2" s="5"/>
       <c r="BB2" s="5"/>
       <c r="BC2" s="5"/>
-      <c r="BD2" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
       <c r="BL2" s="2"/>
       <c r="BM2" s="1" t="s">
         <v>13</v>
@@ -7226,19 +7297,17 @@
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="4"/>
-      <c r="BF4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
       <c r="BL4" s="2"/>
       <c r="BM4" s="1" t="s">
         <v>33</v>
@@ -7367,14 +7436,16 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
-      <c r="BD5" s="5"/>
+      <c r="BD5" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="BE5" s="5"/>
       <c r="BF5" s="5"/>
       <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
       <c r="BL5" s="2"/>
       <c r="BM5" s="1" t="s">
         <v>53</v>
@@ -7499,20 +7570,18 @@
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
-      <c r="BE6" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
       <c r="BL6" s="2"/>
       <c r="BM6" s="2"/>
       <c r="BN6" s="2"/>
@@ -7625,29 +7694,27 @@
       <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
       <c r="AY7" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
-      <c r="BC7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="10"/>
+      <c r="BI7" s="11"/>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="11"/>
       <c r="BL7" s="2"/>
       <c r="BM7" s="2"/>
       <c r="BN7" s="2"/>
       <c r="BO7" s="2"/>
       <c r="BP7" s="2"/>
       <c r="BQ7" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BR7" s="4"/>
       <c r="BS7" s="4"/>
@@ -7678,7 +7745,7 @@
       <c r="CL7" s="4"/>
       <c r="CM7" s="4"/>
       <c r="CN7" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CO7" s="5"/>
       <c r="CP7" s="5"/>
@@ -7686,7 +7753,7 @@
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -7757,25 +7824,25 @@
       <c r="BE8" s="5"/>
       <c r="BF8" s="5"/>
       <c r="BG8" s="5"/>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="5"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
       <c r="BM8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BN8" s="4"/>
       <c r="BO8" s="4"/>
       <c r="BP8" s="4"/>
       <c r="BQ8" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BR8" s="4"/>
       <c r="BS8" s="4"/>
       <c r="BT8" s="4"/>
       <c r="BU8" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BV8" s="4"/>
       <c r="BW8" s="4"/>
@@ -7808,103 +7875,96 @@
     <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="H11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="5" t="s">
-        <v>189</v>
-      </c>
+      <c r="L11" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="T11" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="U11" s="5"/>
-      <c r="V11" s="5" t="s">
-        <v>192</v>
-      </c>
+      <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH11" s="5"/>
+      <c r="Z11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
-      <c r="AK11" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
+      <c r="AR11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
       <c r="AZ11" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BA11" s="5"/>
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
-      <c r="BD11" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="BE11" s="5"/>
-      <c r="BF11" s="5"/>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
       <c r="BL11" s="2"/>
       <c r="BM11" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BN11" s="1"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BR11" s="1"/>
       <c r="BS11" s="1"/>
       <c r="BT11" s="1"/>
       <c r="BU11" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BV11" s="3"/>
       <c r="BW11" s="3"/>
@@ -8011,112 +8071,110 @@
     </row>
     <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AU13" s="5"/>
       <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
       <c r="AX13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AY13" s="5"/>
       <c r="AZ13" s="5"/>
       <c r="BA13" s="5"/>
       <c r="BB13" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BC13" s="5"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
-      <c r="BF13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="10"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
       <c r="BL13" s="2"/>
       <c r="BM13" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BN13" s="1"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
       <c r="BQ13" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BR13" s="1"/>
       <c r="BS13" s="1"/>
       <c r="BT13" s="1"/>
       <c r="BU13" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BV13" s="1"/>
       <c r="BW13" s="1"/>
@@ -8125,25 +8183,25 @@
       <c r="BZ13" s="2"/>
       <c r="CA13" s="2"/>
       <c r="CB13" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CC13" s="5"/>
       <c r="CD13" s="5"/>
       <c r="CE13" s="5"/>
       <c r="CF13" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CG13" s="5"/>
       <c r="CH13" s="5"/>
       <c r="CI13" s="5"/>
       <c r="CJ13" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CK13" s="5"/>
       <c r="CL13" s="5"/>
       <c r="CM13" s="5"/>
       <c r="CN13" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CO13" s="5"/>
       <c r="CP13" s="5"/>
@@ -8151,7 +8209,7 @@
     </row>
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -8159,100 +8217,102 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
       <c r="AZ14" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
-      <c r="BF14" s="10"/>
-      <c r="BG14" s="10"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
-      <c r="BK14" s="5"/>
+      <c r="BD14" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="13"/>
+      <c r="BG14" s="13"/>
+      <c r="BH14" s="12"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
       <c r="BL14" s="2"/>
       <c r="BM14" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BN14" s="1"/>
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
       <c r="BQ14" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BR14" s="1"/>
       <c r="BS14" s="1"/>
       <c r="BT14" s="1"/>
       <c r="BU14" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BV14" s="1"/>
       <c r="BW14" s="1"/>
@@ -8261,25 +8321,25 @@
       <c r="BZ14" s="2"/>
       <c r="CA14" s="2"/>
       <c r="CB14" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="CC14" s="1"/>
       <c r="CD14" s="1"/>
       <c r="CE14" s="1"/>
       <c r="CF14" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="CG14" s="5"/>
       <c r="CH14" s="5"/>
       <c r="CI14" s="5"/>
       <c r="CJ14" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="CK14" s="1"/>
       <c r="CL14" s="1"/>
       <c r="CM14" s="1"/>
       <c r="CN14" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="CO14" s="4"/>
       <c r="CP14" s="4"/>
@@ -8287,7 +8347,7 @@
     </row>
     <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -8296,86 +8356,84 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
-      <c r="BE15" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
-      <c r="BK15" s="5"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="12"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
       <c r="BM15" s="2"/>
       <c r="BN15" s="2"/>
@@ -8393,19 +8451,19 @@
       <c r="BZ15" s="2"/>
       <c r="CA15" s="2"/>
       <c r="CB15" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="CC15" s="1"/>
       <c r="CD15" s="1"/>
       <c r="CE15" s="1"/>
       <c r="CF15" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="CG15" s="5"/>
       <c r="CH15" s="5"/>
       <c r="CI15" s="5"/>
       <c r="CJ15" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CK15" s="5"/>
       <c r="CL15" s="5"/>
@@ -8417,7 +8475,7 @@
     </row>
     <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -8428,89 +8486,87 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
       <c r="AU16" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV16" s="5"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
       <c r="AY16" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
       <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="11"/>
+      <c r="BK16" s="11"/>
       <c r="BL16" s="2"/>
       <c r="BM16" s="2"/>
       <c r="BN16" s="2"/>
       <c r="BO16" s="2"/>
       <c r="BP16" s="2"/>
       <c r="BQ16" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BR16" s="1"/>
       <c r="BS16" s="1"/>
@@ -8523,25 +8579,25 @@
       <c r="BZ16" s="2"/>
       <c r="CA16" s="2"/>
       <c r="CB16" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CC16" s="1"/>
       <c r="CD16" s="1"/>
       <c r="CE16" s="1"/>
       <c r="CF16" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CG16" s="5"/>
       <c r="CH16" s="5"/>
       <c r="CI16" s="5"/>
       <c r="CJ16" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="CK16" s="5"/>
       <c r="CL16" s="5"/>
       <c r="CM16" s="5"/>
       <c r="CN16" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CO16" s="5"/>
       <c r="CP16" s="5"/>
@@ -8549,7 +8605,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -8557,20 +8613,20 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -8599,48 +8655,48 @@
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AW17" s="5"/>
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
       <c r="AZ17" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
       <c r="BD17" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BE17" s="5"/>
       <c r="BF17" s="5"/>
       <c r="BG17" s="5"/>
-      <c r="BH17" s="5"/>
-      <c r="BI17" s="5"/>
-      <c r="BJ17" s="5"/>
-      <c r="BK17" s="5"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
       <c r="BL17" s="2"/>
       <c r="BM17" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BN17" s="1"/>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BR17" s="5"/>
       <c r="BS17" s="5"/>
       <c r="BT17" s="5"/>
       <c r="BU17" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BV17" s="5"/>
       <c r="BW17" s="5"/>
@@ -8649,7 +8705,7 @@
       <c r="BZ17" s="2"/>
       <c r="CA17" s="2"/>
       <c r="CB17" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="CC17" s="1"/>
       <c r="CD17" s="1"/>
@@ -8659,7 +8715,7 @@
       <c r="CH17" s="1"/>
       <c r="CI17" s="1"/>
       <c r="CJ17" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="CK17" s="5"/>
       <c r="CL17" s="5"/>
@@ -8670,20 +8726,20 @@
       <c r="CQ17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="216">
+  <mergeCells count="208">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:AY2"/>
     <mergeCell ref="AZ2:BC2"/>
     <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BH2:BK2"/>
     <mergeCell ref="BM2:BP2"/>
     <mergeCell ref="BQ2:BT2"/>
     <mergeCell ref="BU2:BX2"/>
@@ -8700,8 +8756,7 @@
     <mergeCell ref="AP4:AS4"/>
     <mergeCell ref="AT4:AW4"/>
     <mergeCell ref="AX4:BA4"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="BF4:BK4"/>
+    <mergeCell ref="BB4:BG4"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="BU4:BX4"/>
@@ -8723,7 +8778,6 @@
     <mergeCell ref="AV5:AY5"/>
     <mergeCell ref="AZ5:BC5"/>
     <mergeCell ref="BD5:BG5"/>
-    <mergeCell ref="BH5:BK5"/>
     <mergeCell ref="BM5:BP5"/>
     <mergeCell ref="BQ5:BT5"/>
     <mergeCell ref="BU5:BX5"/>
@@ -8743,8 +8797,7 @@
     <mergeCell ref="AO6:AR6"/>
     <mergeCell ref="AS6:AV6"/>
     <mergeCell ref="AW6:AZ6"/>
-    <mergeCell ref="BA6:BD6"/>
-    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BA6:BG6"/>
     <mergeCell ref="CB6:CE6"/>
     <mergeCell ref="CF6:CI6"/>
     <mergeCell ref="CJ6:CM6"/>
@@ -8759,8 +8812,7 @@
     <mergeCell ref="AM7:AP7"/>
     <mergeCell ref="AQ7:AT7"/>
     <mergeCell ref="AU7:AX7"/>
-    <mergeCell ref="AY7:BB7"/>
-    <mergeCell ref="BC7:BK7"/>
+    <mergeCell ref="AY7:BG7"/>
     <mergeCell ref="BQ7:BT7"/>
     <mergeCell ref="CB7:CE7"/>
     <mergeCell ref="CF7:CI7"/>
@@ -8773,25 +8825,25 @@
     <mergeCell ref="AR8:AU8"/>
     <mergeCell ref="AV8:AY8"/>
     <mergeCell ref="AZ8:BC8"/>
-    <mergeCell ref="BD8:BK8"/>
+    <mergeCell ref="BD8:BG8"/>
     <mergeCell ref="BM8:BP8"/>
     <mergeCell ref="BQ8:BT8"/>
     <mergeCell ref="BU8:BX8"/>
     <mergeCell ref="CB8:CI8"/>
     <mergeCell ref="CJ8:CM8"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AR11:AU11"/>
     <mergeCell ref="AV11:AY11"/>
     <mergeCell ref="AZ11:BC11"/>
     <mergeCell ref="BD11:BG11"/>
-    <mergeCell ref="BH11:BK11"/>
     <mergeCell ref="BM11:BP11"/>
     <mergeCell ref="BQ11:BT11"/>
     <mergeCell ref="BU11:BX11"/>
@@ -8808,8 +8860,7 @@
     <mergeCell ref="AP13:AS13"/>
     <mergeCell ref="AT13:AW13"/>
     <mergeCell ref="AX13:BA13"/>
-    <mergeCell ref="BB13:BE13"/>
-    <mergeCell ref="BF13:BK13"/>
+    <mergeCell ref="BB13:BG13"/>
     <mergeCell ref="BM13:BP13"/>
     <mergeCell ref="BQ13:BT13"/>
     <mergeCell ref="BU13:BX13"/>
@@ -8831,7 +8882,6 @@
     <mergeCell ref="AV14:AY14"/>
     <mergeCell ref="AZ14:BC14"/>
     <mergeCell ref="BD14:BG14"/>
-    <mergeCell ref="BH14:BK14"/>
     <mergeCell ref="BM14:BP14"/>
     <mergeCell ref="BQ14:BT14"/>
     <mergeCell ref="BU14:BX14"/>
@@ -8851,8 +8901,7 @@
     <mergeCell ref="AO15:AR15"/>
     <mergeCell ref="AS15:AV15"/>
     <mergeCell ref="AW15:AZ15"/>
-    <mergeCell ref="BA15:BD15"/>
-    <mergeCell ref="BE15:BK15"/>
+    <mergeCell ref="BA15:BG15"/>
     <mergeCell ref="CB15:CE15"/>
     <mergeCell ref="CF15:CI15"/>
     <mergeCell ref="CJ15:CM15"/>
@@ -8867,8 +8916,7 @@
     <mergeCell ref="AM16:AP16"/>
     <mergeCell ref="AQ16:AT16"/>
     <mergeCell ref="AU16:AX16"/>
-    <mergeCell ref="AY16:BB16"/>
-    <mergeCell ref="BC16:BK16"/>
+    <mergeCell ref="AY16:BG16"/>
     <mergeCell ref="BQ16:BT16"/>
     <mergeCell ref="CB16:CE16"/>
     <mergeCell ref="CF16:CI16"/>
@@ -8881,7 +8929,7 @@
     <mergeCell ref="AR17:AU17"/>
     <mergeCell ref="AV17:AY17"/>
     <mergeCell ref="AZ17:BC17"/>
-    <mergeCell ref="BD17:BK17"/>
+    <mergeCell ref="BD17:BG17"/>
     <mergeCell ref="BM17:BP17"/>
     <mergeCell ref="BQ17:BT17"/>
     <mergeCell ref="BU17:BX17"/>
